--- a/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B5F4B6-FB24-467E-A398-56038D21BD42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F87682-F1F3-4CB3-863D-A8AEC2DB59EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17265" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://www.digikey.ch/product-detail/de/bel-fuse-inc/VRAE-10E1A0G/507-1384-ND/1754625</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>prozessor_rgb</t>
+  </si>
+  <si>
+    <t>stecker</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/de/murata-power-solutions-inc/OKX-T-5-D12P-C/811-3190-ND/3313548</t>
+  </si>
+  <si>
+    <t>stecker_12V</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/de/stromversorgungsbuchse-buchse-durchsteckmontage-leiterplatte-stiftdurchmesser-35mm-aussendurchmesser-zylinder-6mm-lumberg-connect-gmbh-1613-21/p/30068394</t>
+  </si>
+  <si>
+    <t>https://www.distrelec.ch/de/stromversorgungsbuchse-buchse-leiterplatte-smd-stiftdurchmesser-45mm-aussendurchmesser-zylinder-5mm-lumberg-connect-gmbh-1613-15-vp3/p/30068390</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/de/sullins-connector-solutions/SFH11-PBPC-D17-ST-BK/S9199-ND/1990092</t>
   </si>
 </sst>
 </file>
@@ -349,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,20 +378,46 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F87682-F1F3-4CB3-863D-A8AEC2DB59EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>https://www.digikey.ch/product-detail/de/bel-fuse-inc/VRAE-10E1A0G/507-1384-ND/1754625</t>
   </si>
@@ -50,6 +50,240 @@
   </si>
   <si>
     <t>https://www.digikey.ch/product-detail/de/sullins-connector-solutions/SFH11-PBPC-D17-ST-BK/S9199-ND/1990092</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>150E</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>18p</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>TFQP44</t>
+  </si>
+  <si>
+    <t>644PA</t>
+  </si>
+  <si>
+    <t>ATmega</t>
+  </si>
+  <si>
+    <t>ATTINY</t>
+  </si>
+  <si>
+    <t>44A</t>
+  </si>
+  <si>
+    <t>SOIC14</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>jumper</t>
+  </si>
+  <si>
+    <t>1X2</t>
+  </si>
+  <si>
+    <t>2.54mm</t>
+  </si>
+  <si>
+    <t>1x3</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>Taster</t>
+  </si>
+  <si>
+    <t>DC-DC converter</t>
+  </si>
+  <si>
+    <t>1x2,3_2.54</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>female_stiftleiste</t>
+  </si>
+  <si>
+    <t>2x15</t>
+  </si>
+  <si>
+    <t>powerplug</t>
+  </si>
+  <si>
+    <t>buchse</t>
+  </si>
+  <si>
+    <t>5.5mm</t>
+  </si>
+  <si>
+    <t>inductor</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>L2825p</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>FTS-105-01-L-D</t>
+  </si>
+  <si>
+    <t>stiftleiste(90°)</t>
+  </si>
+  <si>
+    <t>2x5</t>
+  </si>
+  <si>
+    <t>RECOM DCDC</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>16M</t>
+  </si>
+  <si>
+    <t>HC49UP</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>BT-Modul</t>
+  </si>
+  <si>
+    <t>BT_RS232</t>
+  </si>
+  <si>
+    <t>1x6</t>
+  </si>
+  <si>
+    <t>RN1</t>
+  </si>
+  <si>
+    <t>USB-Buchse</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>PN87520</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>MBRS130LT3</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
+    <t>FET</t>
+  </si>
+  <si>
+    <t>PMV20EN</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>C1,C2,C4,C7-C9,C11,C12</t>
+  </si>
+  <si>
+    <t>C3,C5</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R1,R2,R8,R11,R21</t>
+  </si>
+  <si>
+    <t>R6,R7,R9,R10,R17,R18</t>
+  </si>
+  <si>
+    <t>TS42_PAD</t>
+  </si>
+  <si>
+    <t>S1,S2,RESET</t>
+  </si>
+  <si>
+    <t>U$1</t>
+  </si>
+  <si>
+    <t>U$2,U$3</t>
+  </si>
+  <si>
+    <t>U$4</t>
   </si>
 </sst>
 </file>
@@ -367,15 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H8"/>
+  <dimension ref="A3:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -420,7 +658,459 @@
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>805</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>805</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>805</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>805</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>805</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>805</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>1206</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C7CED063-B297-4ABA-9461-7F9A822B175A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1455" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>https://www.digikey.ch/product-detail/de/bel-fuse-inc/VRAE-10E1A0G/507-1384-ND/1754625</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>BT-Modul</t>
-  </si>
-  <si>
     <t>BT_RS232</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>U$4</t>
+  </si>
+  <si>
+    <t>BT-Modul(halter)</t>
+  </si>
+  <si>
+    <t>2x3_2.54mm</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H56"/>
+  <dimension ref="A3:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +692,7 @@
         <v>805</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,7 +709,7 @@
         <v>805</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -723,7 +726,7 @@
         <v>805</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -740,7 +743,7 @@
         <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -771,7 +774,7 @@
         <v>805</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -788,7 +791,7 @@
         <v>805</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>1206</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -881,16 +884,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>62</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -898,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -912,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
       <c r="E35">
         <v>1206</v>
@@ -926,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>73</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -988,10 +991,10 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -1022,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -1036,7 +1039,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -1078,7 +1081,7 @@
         <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -1100,13 +1103,27 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
         <v>64</v>
       </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" t="s">
-        <v>65</v>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C7CED063-B297-4ABA-9461-7F9A822B175A}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{EB2157C9-4431-4339-9AC7-DE67C0BBD588}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="885" windowWidth="21600" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>https://www.digikey.ch/product-detail/de/bel-fuse-inc/VRAE-10E1A0G/507-1384-ND/1754625</t>
   </si>
@@ -76,9 +76,6 @@
     <t>10k</t>
   </si>
   <si>
-    <t>150E</t>
-  </si>
-  <si>
     <t>indicator</t>
   </si>
   <si>
@@ -262,12 +259,6 @@
     <t>R5</t>
   </si>
   <si>
-    <t>R1,R2,R8,R11,R21</t>
-  </si>
-  <si>
-    <t>R6,R7,R9,R10,R17,R18</t>
-  </si>
-  <si>
     <t>TS42_PAD</t>
   </si>
   <si>
@@ -287,6 +278,24 @@
   </si>
   <si>
     <t>2x3_2.54mm</t>
+  </si>
+  <si>
+    <t>R17,R18</t>
+  </si>
+  <si>
+    <t>R1,R2,R6...R11,R21</t>
+  </si>
+  <si>
+    <t>1k3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ö</t>
   </si>
 </sst>
 </file>
@@ -606,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,12 +684,12 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -692,7 +701,10 @@
         <v>805</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,10 +721,13 @@
         <v>805</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -726,27 +741,30 @@
         <v>805</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E18">
         <v>805</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -760,370 +778,439 @@
         <v>805</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>8</v>
       </c>
       <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
       </c>
       <c r="E22">
         <v>805</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>805</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>48</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
         <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
       </c>
       <c r="E28">
         <v>1206</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
       </c>
       <c r="E35">
         <v>1206</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>73</v>
       </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
         <v>33</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>38</v>
       </c>
-      <c r="E44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
         <v>39</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>41</v>
       </c>
-      <c r="E48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>42</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="F51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>44</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>45</v>
       </c>
-      <c r="E54" t="s">
-        <v>46</v>
-      </c>
       <c r="F54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" t="s">
         <v>63</v>
       </c>
-      <c r="E56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
+++ b/Print/Microsoft Excel-Arbeitsblatt (neu).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{EB2157C9-4431-4339-9AC7-DE67C0BBD588}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{D5502CFD-656F-4CCD-A2FF-8EC424A478D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F74EC7D2-0659-4F16-A64D-42C456AA82E8}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="885" windowWidth="21600" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
